--- a/src/test/resources/test-data/Add_Supplier_Afghanistan.xlsx
+++ b/src/test/resources/test-data/Add_Supplier_Afghanistan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="17028" windowHeight="7944"/>
   </bookViews>
   <sheets>
     <sheet name="Add_Supplier" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <oleSize ref="A1:I12"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="60">
   <si>
     <t>Company_Name</t>
   </si>
@@ -61,67 +62,67 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Dailyregress01</t>
-  </si>
-  <si>
-    <t>Dailyregress01@yopmail.com</t>
+    <t>supplierregress01</t>
+  </si>
+  <si>
+    <t>supplierregress01@yopmail.com</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>supplierregress02</t>
+  </si>
+  <si>
+    <t>supplierregress02@yopmail.com</t>
+  </si>
+  <si>
+    <t>supplierregress03</t>
+  </si>
+  <si>
+    <t>supplierregress03@yopmail.com</t>
+  </si>
+  <si>
+    <t>supplierregress04</t>
+  </si>
+  <si>
+    <t>supplierregress04@yopmail.com</t>
+  </si>
+  <si>
+    <t>supplierregress05</t>
+  </si>
+  <si>
+    <t>supplierregress05@yopmail.com</t>
+  </si>
+  <si>
+    <t>supplierregress06</t>
+  </si>
+  <si>
+    <t>supplierregress06@yopmail.com</t>
+  </si>
+  <si>
+    <t>supplierregress07</t>
+  </si>
+  <si>
+    <t>supplierregress07@yopmail.com</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Currenturl</t>
+  </si>
+  <si>
+    <t>CocCurrentUrl</t>
+  </si>
+  <si>
     <t>Dailyregress02</t>
   </si>
   <si>
     <t>Dailyregress02@yopmail.com</t>
   </si>
   <si>
-    <t>Dailyregress03</t>
-  </si>
-  <si>
-    <t>Dailyregress03@yopmail.com</t>
-  </si>
-  <si>
-    <t>Dailyregress04</t>
-  </si>
-  <si>
-    <t>Dailyregress04@yopmail.com</t>
-  </si>
-  <si>
-    <t>Dailyregress05</t>
-  </si>
-  <si>
-    <t>Dailyregress05@yopmail.com</t>
-  </si>
-  <si>
-    <t>Dailyregress06</t>
-  </si>
-  <si>
-    <t>Dailyregress06@yopmail.com</t>
-  </si>
-  <si>
-    <t>Dailyregress07</t>
-  </si>
-  <si>
-    <t>Dailyregress07@yopmail.com</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Currenturl</t>
-  </si>
-  <si>
-    <t>CocCurrentUrl</t>
-  </si>
-  <si>
-    <t>Regressauto001</t>
-  </si>
-  <si>
-    <t>Regressauto001@yopmail.com</t>
-  </si>
-  <si>
-    <t>https://qa.daato.app/requests/680884d5983bed769dea60c9/main</t>
+    <t>https://qa.daato.app/requests/6809cc8e983bed769dede565/main</t>
   </si>
   <si>
     <t>Categories</t>
@@ -212,12 +213,6 @@
   </si>
   <si>
     <t>Responsible Sourcing</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>https://qa.daato.app/requests/6809cc8e983bed769dede565/main</t>
   </si>
 </sst>
 </file>
@@ -1219,23 +1214,23 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.1111111111111" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.4444444444444" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="9" width="26.3333333333333" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="19.4444444444444" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.1111111111111" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.46484375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.8046875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.6666666666667" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="10.3333333333333" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="14.7777777777778" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="13.4444444444444" collapsed="true"/>
+    <col min="1" max="1" width="27.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="38.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="26.3333333333333" style="9" customWidth="1"/>
+    <col min="4" max="4" width="19.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="19.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="12.462962962963" customWidth="1"/>
+    <col min="8" max="8" width="15.8055555555556" customWidth="1"/>
+    <col min="9" max="9" width="14.6666666666667" customWidth="1"/>
+    <col min="10" max="10" width="10.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="14.7777777777778" customWidth="1"/>
+    <col min="12" max="12" width="13.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:9">
@@ -1287,10 +1282,10 @@
         <v>35</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="I2">
         <v>12</v>
@@ -1316,7 +1311,7 @@
         <v>35</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>11</v>
@@ -1478,13 +1473,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="Dailyregress02@yopmail.com" tooltip="mailto:Dailyregress01@yopmail.com"/>
-    <hyperlink ref="B4" r:id="rId1" display="Dailyregress03@yopmail.com" tooltip="mailto:Dailyregress01@yopmail.com"/>
-    <hyperlink ref="B5" r:id="rId1" display="Dailyregress04@yopmail.com" tooltip="mailto:Dailyregress01@yopmail.com"/>
-    <hyperlink ref="B6" r:id="rId1" display="Dailyregress05@yopmail.com" tooltip="mailto:Dailyregress01@yopmail.com"/>
-    <hyperlink ref="B7" r:id="rId1" display="Dailyregress06@yopmail.com" tooltip="mailto:Dailyregress01@yopmail.com"/>
-    <hyperlink ref="B8" r:id="rId1" display="Dailyregress07@yopmail.com" tooltip="mailto:Dailyregress01@yopmail.com"/>
-    <hyperlink ref="B2" r:id="rId1" display="Dailyregress01@yopmail.com" tooltip="mailto:Dailyregress01@yopmail.com"/>
+    <hyperlink ref="B3" r:id="rId1" display="supplierregress02@yopmail.com" tooltip="mailto:supplierregress01@yopmail.com"/>
+    <hyperlink ref="B4" r:id="rId1" display="supplierregress03@yopmail.com" tooltip="mailto:supplierregress01@yopmail.com"/>
+    <hyperlink ref="B5" r:id="rId1" display="supplierregress04@yopmail.com" tooltip="mailto:supplierregress01@yopmail.com"/>
+    <hyperlink ref="B6" r:id="rId1" display="supplierregress05@yopmail.com" tooltip="mailto:supplierregress01@yopmail.com"/>
+    <hyperlink ref="B7" r:id="rId1" display="supplierregress06@yopmail.com" tooltip="mailto:supplierregress01@yopmail.com"/>
+    <hyperlink ref="B8" r:id="rId1" display="supplierregress07@yopmail.com" tooltip="mailto:supplierregress01@yopmail.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="supplierregress01@yopmail.com" tooltip="mailto:supplierregress01@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1502,11 +1497,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.91015625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="27.7421875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="61.203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="63.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="46.0" collapsed="true"/>
+    <col min="1" max="1" width="15.9074074074074" customWidth="1"/>
+    <col min="2" max="2" width="27.7407407407407" customWidth="1"/>
+    <col min="3" max="3" width="61.2037037037037" customWidth="1"/>
+    <col min="4" max="4" width="63" customWidth="1"/>
+    <col min="5" max="5" width="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1526,13 +1521,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="3:3">
@@ -1540,7 +1535,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Regressauto001@yopmail.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="Dailyregress02@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1558,14 +1553,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="48.1111111111111" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="44.51171875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="43.4444444444444" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="27.8888888888889" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="35.12890625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.5555555555556" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="35.23046875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="23.4444444444444" collapsed="true"/>
+    <col min="1" max="1" width="48.1111111111111" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="44.5092592592593" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="43.4444444444444" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.8888888888889" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="35.1296296296296" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.5555555555556" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35.2314814814815" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.4444444444444" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1853,11 +1848,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.2222222222222" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.3425925925926" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.5555555555556" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="23.83984375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="28.1111111111111" collapsed="true"/>
+    <col min="1" max="1" width="34.2222222222222" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.3425925925926" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.5555555555556" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.8425925925926" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="28.1111111111111" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2115,9 +2110,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.91015625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="27.7421875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.4444444444444" collapsed="true"/>
+    <col min="1" max="1" width="15.9074074074074" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.7407407407407" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.4444444444444" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2135,10 +2130,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>12</v>

--- a/src/test/resources/test-data/Add_Supplier_Afghanistan.xlsx
+++ b/src/test/resources/test-data/Add_Supplier_Afghanistan.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="60">
   <si>
     <t>Company_Name</t>
   </si>
@@ -68,15 +68,18 @@
     <t>supplierregress01@yopmail.com</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>supplierregress02</t>
+  </si>
+  <si>
+    <t>supplierregress02@yopmail.com</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>supplierregress02</t>
-  </si>
-  <si>
-    <t>supplierregress02@yopmail.com</t>
-  </si>
-  <si>
     <t>supplierregress03</t>
   </si>
   <si>
@@ -116,12 +119,6 @@
     <t>CocCurrentUrl</t>
   </si>
   <si>
-    <t>Dailyregress02</t>
-  </si>
-  <si>
-    <t>Dailyregress02@yopmail.com</t>
-  </si>
-  <si>
     <t>https://qa.daato.app/requests/6809cc8e983bed769dede565/main</t>
   </si>
   <si>
@@ -213,6 +210,9 @@
   </si>
   <si>
     <t>Responsible Sourcing</t>
+  </si>
+  <si>
+    <t>https://qa.daato.app/requests/680b6062983bed769def3301/main</t>
   </si>
 </sst>
 </file>
@@ -1214,23 +1214,23 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.1111111111111" customWidth="1"/>
-    <col min="2" max="2" width="38.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="26.3333333333333" style="9" customWidth="1"/>
-    <col min="4" max="4" width="19.4444444444444" customWidth="1"/>
-    <col min="5" max="5" width="19.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="12.462962962963" customWidth="1"/>
-    <col min="8" max="8" width="15.8055555555556" customWidth="1"/>
-    <col min="9" max="9" width="14.6666666666667" customWidth="1"/>
-    <col min="10" max="10" width="10.3333333333333" customWidth="1"/>
-    <col min="11" max="11" width="14.7777777777778" customWidth="1"/>
-    <col min="12" max="12" width="13.4444444444444" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="27.1111111111111" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.4444444444444" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="9" width="26.3333333333333" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.4444444444444" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.1111111111111" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.462962962963" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.8046875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.6666666666667" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="10.3333333333333" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="14.7777777777778" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.4444444444444" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:9">
@@ -1319,13 +1319,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
       </c>
       <c r="D4" s="2">
         <v>99</v>
@@ -1337,21 +1337,21 @@
         <v>35</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
       </c>
       <c r="D5" s="2">
         <v>99</v>
@@ -1363,21 +1363,21 @@
         <v>35</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
       </c>
       <c r="D6" s="2">
         <v>99</v>
@@ -1389,21 +1389,21 @@
         <v>35</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
       </c>
       <c r="D7" s="2">
         <v>99</v>
@@ -1415,21 +1415,21 @@
         <v>35</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
       </c>
       <c r="D8" s="2">
         <v>99</v>
@@ -1441,10 +1441,10 @@
         <v>35</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -1497,11 +1497,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.9074074074074" customWidth="1"/>
-    <col min="2" max="2" width="27.7407407407407" customWidth="1"/>
-    <col min="3" max="3" width="61.2037037037037" customWidth="1"/>
-    <col min="4" max="4" width="63" customWidth="1"/>
-    <col min="5" max="5" width="46" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.9444444444444" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.5277777777778" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="61.0390625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="63.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="46.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1509,25 +1509,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="3:3">
@@ -1535,7 +1535,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Dailyregress02@yopmail.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="supplierregress02@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1553,282 +1553,282 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="48.1111111111111" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="44.5092592592593" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="43.4444444444444" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.8888888888889" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.1296296296296" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.5555555555556" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35.2314814814815" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.4444444444444" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.1111111111111" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="44.51171875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="43.4444444444444" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="27.8888888888889" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="35.12890625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.5555555555556" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="35.23046875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="23.4444444444444" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>36</v>
-      </c>
-      <c r="H1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="G2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="G3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="H5" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="G5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="G6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="H7" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="G7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="H9" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="G9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="H10" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="G10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1848,249 +1848,249 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="34.2222222222222" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.3425925925926" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.5555555555556" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.8425925925926" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="28.1111111111111" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.2222222222222" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.3425925925926" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.5555555555556" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.83984375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="28.1111111111111" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>54</v>
-      </c>
-      <c r="E1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2110,9 +2110,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.9074074074074" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.7407407407407" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.4444444444444" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.9444444444444" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.5277777777778" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.4444444444444" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
@@ -2130,10 +2130,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>12</v>

--- a/src/test/resources/test-data/Add_Supplier_Afghanistan.xlsx
+++ b/src/test/resources/test-data/Add_Supplier_Afghanistan.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="59">
   <si>
     <t>Company_Name</t>
   </si>
@@ -77,15 +77,15 @@
     <t>supplierregress02@yopmail.com</t>
   </si>
   <si>
+    <t>supplierregress03</t>
+  </si>
+  <si>
+    <t>supplierregress03@yopmail.com</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>supplierregress03</t>
-  </si>
-  <si>
-    <t>supplierregress03@yopmail.com</t>
-  </si>
-  <si>
     <t>supplierregress04</t>
   </si>
   <si>
@@ -119,7 +119,7 @@
     <t>CocCurrentUrl</t>
   </si>
   <si>
-    <t>https://qa.daato.app/requests/6809cc8e983bed769dede565/main</t>
+    <t>https://qa.daato.app/requests/680b6062983bed769def3301/main</t>
   </si>
   <si>
     <t>Categories</t>
@@ -210,9 +210,6 @@
   </si>
   <si>
     <t>Responsible Sourcing</t>
-  </si>
-  <si>
-    <t>https://qa.daato.app/requests/680b6062983bed769def3301/main</t>
   </si>
 </sst>
 </file>
@@ -1214,23 +1211,23 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.1111111111111" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.4444444444444" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="9" width="26.3333333333333" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="19.4444444444444" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.1111111111111" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.462962962963" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.8046875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.6666666666667" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="10.3333333333333" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="14.7777777777778" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="13.4444444444444" collapsed="true"/>
+    <col min="1" max="1" width="27.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="38.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="26.3333333333333" style="9" customWidth="1"/>
+    <col min="4" max="4" width="19.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="19.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="12.462962962963" customWidth="1"/>
+    <col min="8" max="8" width="15.8055555555556" customWidth="1"/>
+    <col min="9" max="9" width="14.6666666666667" customWidth="1"/>
+    <col min="10" max="10" width="10.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="14.7777777777778" customWidth="1"/>
+    <col min="12" max="12" width="13.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:9">
@@ -1319,13 +1316,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2">
         <v>99</v>
@@ -1337,10 +1334,10 @@
         <v>35</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1363,10 +1360,10 @@
         <v>35</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1389,10 +1386,10 @@
         <v>35</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1415,10 +1412,10 @@
         <v>35</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1441,10 +1438,10 @@
         <v>35</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -1497,11 +1494,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.9444444444444" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.5277777777778" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="61.0390625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="63.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="46.0" collapsed="true"/>
+    <col min="1" max="1" width="16.9444444444444" customWidth="1"/>
+    <col min="2" max="2" width="30.5277777777778" customWidth="1"/>
+    <col min="3" max="3" width="61.037037037037" customWidth="1"/>
+    <col min="4" max="4" width="63" customWidth="1"/>
+    <col min="5" max="5" width="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1527,7 +1524,7 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="3:3">
@@ -1553,14 +1550,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="48.1111111111111" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="44.51171875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="43.4444444444444" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="27.8888888888889" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="35.12890625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.5555555555556" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="35.23046875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="23.4444444444444" collapsed="true"/>
+    <col min="1" max="1" width="48.1111111111111" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="44.5092592592593" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="43.4444444444444" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.8888888888889" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="35.1296296296296" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.5555555555556" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35.2314814814815" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.4444444444444" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1848,11 +1845,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.2222222222222" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.3425925925926" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.5555555555556" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="23.83984375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="28.1111111111111" collapsed="true"/>
+    <col min="1" max="1" width="34.2222222222222" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.3425925925926" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.5555555555556" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.8425925925926" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="28.1111111111111" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2110,9 +2107,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.9444444444444" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.5277777777778" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.4444444444444" collapsed="true"/>
+    <col min="1" max="1" width="16.9444444444444" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.5277777777778" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.4444444444444" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">

--- a/src/test/resources/test-data/Add_Supplier_Afghanistan.xlsx
+++ b/src/test/resources/test-data/Add_Supplier_Afghanistan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17028" windowHeight="7944"/>
+    <workbookView windowWidth="22188" windowHeight="9000" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Add_Supplier" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <oleSize ref="A1:I12"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -119,7 +118,7 @@
     <t>CocCurrentUrl</t>
   </si>
   <si>
-    <t>https://qa.daato.app/requests/680b6062983bed769def3301/main</t>
+    <t>https://qa.daato.app/requests/6809cc8e983bed769dede565/main</t>
   </si>
   <si>
     <t>Categories</t>
@@ -1210,8 +1209,8 @@
   <sheetPr/>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1494,9 +1493,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="16.9444444444444" customWidth="1"/>
-    <col min="2" max="2" width="30.5277777777778" customWidth="1"/>
-    <col min="3" max="3" width="61.037037037037" customWidth="1"/>
+    <col min="1" max="1" width="15.9074074074074" customWidth="1"/>
+    <col min="2" max="2" width="28.9722222222222" customWidth="1"/>
+    <col min="3" max="3" width="61.2037037037037" customWidth="1"/>
     <col min="4" max="4" width="63" customWidth="1"/>
     <col min="5" max="5" width="46" customWidth="1"/>
   </cols>
@@ -1518,10 +1517,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -1532,7 +1531,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="supplierregress02@yopmail.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="supplierregress03@yopmail.com" tooltip="mailto:supplierregress03@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1550,14 +1549,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="48.1111111111111" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="44.5092592592593" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="43.4444444444444" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.8888888888889" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.1296296296296" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.5555555555556" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35.2314814814815" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.4444444444444" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="48.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="44.5092592592593" customWidth="1"/>
+    <col min="3" max="3" width="43.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="27.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="35.1296296296296" customWidth="1"/>
+    <col min="6" max="6" width="25.5555555555556" customWidth="1"/>
+    <col min="7" max="7" width="35.2314814814815" customWidth="1"/>
+    <col min="8" max="8" width="23.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1845,11 +1844,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="34.2222222222222" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.3425925925926" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.5555555555556" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.8425925925926" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="28.1111111111111" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="34.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="13.3425925925926" customWidth="1"/>
+    <col min="3" max="3" width="20.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="23.8425925925926" customWidth="1"/>
+    <col min="5" max="5" width="28.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2101,15 +2100,15 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="16.9444444444444" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.5277777777778" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.4444444444444" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="15.9074074074074" customWidth="1"/>
+    <col min="2" max="2" width="28.9722222222222" customWidth="1"/>
+    <col min="3" max="3" width="15.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2127,16 +2126,19 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>12</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="supplierregress03@yopmail.com" tooltip="mailto:supplierregress03@yopmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/src/test/resources/test-data/Add_Supplier_Afghanistan.xlsx
+++ b/src/test/resources/test-data/Add_Supplier_Afghanistan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000" activeTab="4"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Add_Supplier" sheetId="1" r:id="rId1"/>
@@ -1209,8 +1209,8 @@
   <sheetPr/>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1333,7 +1333,7 @@
         <v>35</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>16</v>
@@ -2100,7 +2100,7 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/test-data/Add_Supplier_Afghanistan.xlsx
+++ b/src/test/resources/test-data/Add_Supplier_Afghanistan.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="57">
   <si>
     <t>Company_Name</t>
   </si>
@@ -61,52 +61,49 @@
     <t>Password</t>
   </si>
   <si>
-    <t>supplierregress01</t>
-  </si>
-  <si>
-    <t>supplierregress01@yopmail.com</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>supplierregress02</t>
-  </si>
-  <si>
-    <t>supplierregress02@yopmail.com</t>
-  </si>
-  <si>
-    <t>supplierregress03</t>
-  </si>
-  <si>
-    <t>supplierregress03@yopmail.com</t>
+    <t>latestsupplier01</t>
+  </si>
+  <si>
+    <t>latestsupplier01@yopmail.com</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>supplierregress04</t>
-  </si>
-  <si>
-    <t>supplierregress04@yopmail.com</t>
-  </si>
-  <si>
-    <t>supplierregress05</t>
-  </si>
-  <si>
-    <t>supplierregress05@yopmail.com</t>
-  </si>
-  <si>
-    <t>supplierregress06</t>
-  </si>
-  <si>
-    <t>supplierregress06@yopmail.com</t>
-  </si>
-  <si>
-    <t>supplierregress07</t>
-  </si>
-  <si>
-    <t>supplierregress07@yopmail.com</t>
+    <t>latestsupplier02</t>
+  </si>
+  <si>
+    <t>latestsupplier02@yopmail.com</t>
+  </si>
+  <si>
+    <t>latestsupplier03</t>
+  </si>
+  <si>
+    <t>latestsupplier03@yopmail.com</t>
+  </si>
+  <si>
+    <t>latestsupplier04</t>
+  </si>
+  <si>
+    <t>latestsupplier04@yopmail.com</t>
+  </si>
+  <si>
+    <t>latestsupplier05</t>
+  </si>
+  <si>
+    <t>latestsupplier05@yopmail.com</t>
+  </si>
+  <si>
+    <t>latestsupplier06</t>
+  </si>
+  <si>
+    <t>latestsupplier06@yopmail.com</t>
+  </si>
+  <si>
+    <t>latestsupplier07</t>
+  </si>
+  <si>
+    <t>latestsupplier07@yopmail.com</t>
   </si>
   <si>
     <t>Email</t>
@@ -116,9 +113,6 @@
   </si>
   <si>
     <t>CocCurrentUrl</t>
-  </si>
-  <si>
-    <t>https://qa.daato.app/requests/6809cc8e983bed769dede565/main</t>
   </si>
   <si>
     <t>Categories</t>
@@ -1210,7 +1204,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G2" sqref="G2:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1295,7 +1289,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2">
         <v>99</v>
@@ -1321,7 +1315,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2">
         <v>99</v>
@@ -1336,18 +1330,18 @@
         <v>11</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2">
         <v>99</v>
@@ -1359,21 +1353,21 @@
         <v>35</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2">
         <v>99</v>
@@ -1385,21 +1379,21 @@
         <v>35</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2">
         <v>99</v>
@@ -1411,21 +1405,21 @@
         <v>35</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2">
         <v>99</v>
@@ -1437,10 +1431,10 @@
         <v>35</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -1469,13 +1463,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="supplierregress02@yopmail.com" tooltip="mailto:supplierregress01@yopmail.com"/>
-    <hyperlink ref="B4" r:id="rId1" display="supplierregress03@yopmail.com" tooltip="mailto:supplierregress01@yopmail.com"/>
-    <hyperlink ref="B5" r:id="rId1" display="supplierregress04@yopmail.com" tooltip="mailto:supplierregress01@yopmail.com"/>
-    <hyperlink ref="B6" r:id="rId1" display="supplierregress05@yopmail.com" tooltip="mailto:supplierregress01@yopmail.com"/>
-    <hyperlink ref="B7" r:id="rId1" display="supplierregress06@yopmail.com" tooltip="mailto:supplierregress01@yopmail.com"/>
-    <hyperlink ref="B8" r:id="rId1" display="supplierregress07@yopmail.com" tooltip="mailto:supplierregress01@yopmail.com"/>
-    <hyperlink ref="B2" r:id="rId1" display="supplierregress01@yopmail.com" tooltip="mailto:supplierregress01@yopmail.com"/>
+    <hyperlink ref="B3" r:id="rId1" display="latestsupplier02@yopmail.com" tooltip="mailto:latestsupplier01@yopmail.com"/>
+    <hyperlink ref="B4" r:id="rId1" display="latestsupplier03@yopmail.com" tooltip="mailto:latestsupplier01@yopmail.com"/>
+    <hyperlink ref="B5" r:id="rId1" display="latestsupplier04@yopmail.com" tooltip="mailto:latestsupplier01@yopmail.com"/>
+    <hyperlink ref="B6" r:id="rId1" display="latestsupplier05@yopmail.com" tooltip="mailto:latestsupplier01@yopmail.com"/>
+    <hyperlink ref="B7" r:id="rId1" display="latestsupplier06@yopmail.com" tooltip="mailto:latestsupplier01@yopmail.com"/>
+    <hyperlink ref="B8" r:id="rId1" display="latestsupplier07@yopmail.com" tooltip="mailto:latestsupplier01@yopmail.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="latestsupplier01@yopmail.com" tooltip="mailto:latestsupplier01@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1488,7 +1482,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -1505,34 +1499,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
+    <row r="2" spans="2:2">
+      <c r="B2" s="2"/>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" s="8"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="supplierregress03@yopmail.com" tooltip="mailto:supplierregress03@yopmail.com"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1561,270 +1544,270 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>34</v>
-      </c>
-      <c r="G1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" t="s">
+      <c r="H2" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1853,240 +1836,240 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>52</v>
-      </c>
-      <c r="D1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2116,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
@@ -2124,21 +2107,10 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2">
-        <v>12</v>
-      </c>
+    <row r="2" spans="2:2">
+      <c r="B2" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="supplierregress03@yopmail.com" tooltip="mailto:supplierregress03@yopmail.com"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
